--- a/Networks/Parte2/Excel/Parte2-Network15.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network15.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.701716105994998</v>
+        <v>-0.7048016320072106</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9328022092662905</v>
+        <v>0.0006091205190841796</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2282105655317004</v>
+        <v>0.4015493903758083</v>
       </c>
       <c r="C3" t="n">
-        <v>1.453024336275598</v>
+        <v>-0.5052744488970066</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.4910025685105004</v>
+        <v>-1.384040654419918</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7198153451292588</v>
+        <v>-0.705614273029844</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.658090291196124</v>
+        <v>-0.5909289811262698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02262454134359367</v>
+        <v>-0.3652495545693971</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5507733618062347</v>
+        <v>-0.7273794528638384</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1695090547639909</v>
+        <v>0.6263236006726336</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.559034184073988</v>
+        <v>-0.9386349892913847</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02619975750928413</v>
+        <v>0.5491558014066598</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network15.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network15.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7048016320072106</v>
+        <v>-0.3398761212379742</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0006091205190841796</v>
+        <v>-0.2080425783312123</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4015493903758083</v>
+        <v>-1.178633112448592</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.5052744488970066</v>
+        <v>-0.4029934313610458</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.384040654419918</v>
+        <v>-0.7418062170048667</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.705614273029844</v>
+        <v>-0.05510495897711093</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.5909289811262698</v>
+        <v>-0.7652778581602446</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3652495545693971</v>
+        <v>-0.05331725020813981</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7273794528638384</v>
+        <v>-1.108795268790843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6263236006726336</v>
+        <v>-0.506664820291607</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9386349892913847</v>
+        <v>-0.2154940908642698</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5491558014066598</v>
+        <v>0.4137171347917183</v>
       </c>
     </row>
   </sheetData>
